--- a/Soil Ag model pick.xlsx
+++ b/Soil Ag model pick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\RESEARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BCBCD5-A9BC-44B0-8D2F-2818A80053D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104EFAE1-12A5-46BC-A3AA-7BF59E9D5D77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED03EBDA-41C0-4D87-9A19-79466A0FFD4B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>??SAME w or without K and p???</t>
+  </si>
+  <si>
+    <t>Soil Ag~Chem + plants,  chemistry~microbes, microbes~plants</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>SRMR</t>
+  </si>
+  <si>
+    <t>(NOT SIG)</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80774E38-D980-4ACC-972B-88832E3B4374}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +480,7 @@
     <col min="1" max="1" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +511,14 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -529,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,7 +576,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -587,7 +605,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -616,7 +634,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -642,7 +660,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -671,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -702,8 +720,14 @@
       <c r="L8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P8">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -729,7 +753,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -755,7 +779,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -781,7 +805,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -807,7 +831,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -831,6 +855,23 @@
       </c>
       <c r="K13">
         <v>0.107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.95</v>
+      </c>
+      <c r="P14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
